--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_49.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_49.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_0</t>
+          <t>model_1_49_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9968019809570952</v>
+        <v>0.9212392943334587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7173636709213544</v>
+        <v>0.7437583551568239</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7106938818880413</v>
+        <v>0.6964243029189771</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9870511571970424</v>
+        <v>0.9297050819919762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01342140179473267</v>
+        <v>0.3305418329927041</v>
       </c>
       <c r="G2" t="n">
-        <v>1.889990433969532</v>
+        <v>1.713489058950602</v>
       </c>
       <c r="H2" t="n">
-        <v>1.034831209553921</v>
+        <v>1.085872666128536</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001965450881450622</v>
+        <v>0.3896509550849518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1603982584954638</v>
+        <v>1.778379946037385</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1158507738201721</v>
+        <v>0.5749276763147727</v>
       </c>
       <c r="L2" t="n">
-        <v>1.001872011147066</v>
+        <v>0.7299632948575729</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1207827811058594</v>
+        <v>0.5994035377598519</v>
       </c>
       <c r="N2" t="n">
-        <v>138.6218093945009</v>
+        <v>36.21404410567172</v>
       </c>
       <c r="O2" t="n">
-        <v>217.8487380109339</v>
+        <v>56.93493312843113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_1</t>
+          <t>model_1_49_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9968455247052623</v>
+        <v>0.9218136721443665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7172928896350831</v>
+        <v>0.7436985158515288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7106058995354263</v>
+        <v>0.6973100986959764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9845053668390954</v>
+        <v>0.9335079755548149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01323865799866404</v>
+        <v>0.3281312921926813</v>
       </c>
       <c r="G3" t="n">
-        <v>1.890463748756746</v>
+        <v>1.713889204660645</v>
       </c>
       <c r="H3" t="n">
-        <v>1.035145917327715</v>
+        <v>1.082704225995599</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002351865789651732</v>
+        <v>0.3685711793225362</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1681768109747697</v>
+        <v>1.77961716157058</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1150593672790879</v>
+        <v>0.5728274541191976</v>
       </c>
       <c r="L3" t="n">
-        <v>1.001846522123749</v>
+        <v>0.7319325902092566</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1199576827498839</v>
+        <v>0.5972139047573518</v>
       </c>
       <c r="N3" t="n">
-        <v>138.649228186456</v>
+        <v>36.22868293922769</v>
       </c>
       <c r="O3" t="n">
-        <v>217.8761568028891</v>
+        <v>56.9495719619871</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9968860458224693</v>
+        <v>0.9204418647423819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7172226357215397</v>
+        <v>0.7429410421994014</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7105161042270863</v>
+        <v>0.6966126591295931</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9817109920406669</v>
+        <v>0.9245995236437301</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01306859953812677</v>
+        <v>0.3338884743982943</v>
       </c>
       <c r="G4" t="n">
-        <v>1.890933537000101</v>
+        <v>1.718954434460267</v>
       </c>
       <c r="H4" t="n">
-        <v>1.035467109939016</v>
+        <v>1.085198926884682</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002776012294034353</v>
+        <v>0.4179515171029477</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1758275641502382</v>
+        <v>1.774343949977793</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1143179755687039</v>
+        <v>0.5778308354512541</v>
       </c>
       <c r="L4" t="n">
-        <v>1.001822802445384</v>
+        <v>0.7272292505453093</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1191847284594963</v>
+        <v>0.6024302903911413</v>
       </c>
       <c r="N4" t="n">
-        <v>138.6750858159145</v>
+        <v>36.19389650150519</v>
       </c>
       <c r="O4" t="n">
-        <v>217.9020144323475</v>
+        <v>56.9147855242646</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9969236505471676</v>
+        <v>0.9194669809013315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7171529855224538</v>
+        <v>0.7409031411685219</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7104254958563783</v>
+        <v>0.697904427307688</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9786796413709894</v>
+        <v>0.9189308214461731</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01291078055306585</v>
+        <v>0.3379798533295608</v>
       </c>
       <c r="G5" t="n">
-        <v>1.891399288202098</v>
+        <v>1.73258188803743</v>
       </c>
       <c r="H5" t="n">
-        <v>1.035791210827263</v>
+        <v>1.08057834701266</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003236128378256391</v>
+        <v>0.4493736353436736</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1833486410760805</v>
+        <v>1.769968784786499</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1136256157433958</v>
+        <v>0.5813603472284301</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001800789923609</v>
+        <v>0.723886791661708</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1184628934430426</v>
+        <v>0.6061100607917681</v>
       </c>
       <c r="N5" t="n">
-        <v>138.6993852296615</v>
+        <v>36.16953798161889</v>
       </c>
       <c r="O5" t="n">
-        <v>217.9263138460946</v>
+        <v>56.8904270043783</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9969584311831566</v>
+        <v>0.918230226463373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7170839195645478</v>
+        <v>0.7370017700883122</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7103335660297188</v>
+        <v>0.7003364592239211</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9754219277172067</v>
+        <v>0.9133806418767875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01276481366418158</v>
+        <v>0.3431702471360286</v>
       </c>
       <c r="G6" t="n">
-        <v>1.891861132580635</v>
+        <v>1.758670374414953</v>
       </c>
       <c r="H6" t="n">
-        <v>1.036120038486827</v>
+        <v>1.071879109865607</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003730603156410198</v>
+        <v>0.4801387721613489</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1907747719237621</v>
+        <v>1.798421187833456</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1129814748716867</v>
+        <v>0.5858073464339864</v>
       </c>
       <c r="L6" t="n">
-        <v>1.001780430526933</v>
+        <v>0.7196464907315647</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1177913301608694</v>
+        <v>0.6107463779600624</v>
       </c>
       <c r="N6" t="n">
-        <v>138.7221256515916</v>
+        <v>36.13905721524086</v>
       </c>
       <c r="O6" t="n">
-        <v>217.9490542680247</v>
+        <v>56.85994623800027</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9969904582221576</v>
+        <v>0.9114721009325808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7170155454182856</v>
+        <v>0.7218184237580449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7102404943427547</v>
+        <v>0.6994582298449381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9719487516923196</v>
+        <v>0.8843491321189927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01263040303280009</v>
+        <v>0.3715326542734221</v>
       </c>
       <c r="G7" t="n">
-        <v>1.892318350811524</v>
+        <v>1.860201481238332</v>
       </c>
       <c r="H7" t="n">
-        <v>1.036452950514491</v>
+        <v>1.075020485431564</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00425778206987946</v>
+        <v>0.641063001468958</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1983854911690005</v>
+        <v>2.040029714940467</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1123850658797693</v>
+        <v>0.6095347851217534</v>
       </c>
       <c r="L7" t="n">
-        <v>1.001761682991908</v>
+        <v>0.6964757746259913</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1171695308034292</v>
+        <v>0.6354839428353369</v>
       </c>
       <c r="N7" t="n">
-        <v>138.7432968647534</v>
+        <v>35.98023704047839</v>
       </c>
       <c r="O7" t="n">
-        <v>217.9702254811864</v>
+        <v>56.70112606323779</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9970198585224712</v>
+        <v>0.9065666543657931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7169476985574905</v>
+        <v>0.7176593333154722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7101467584169654</v>
+        <v>0.6904318402997369</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9682698273281189</v>
+        <v>0.8557052336214452</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0125070162617707</v>
+        <v>0.3921197641286683</v>
       </c>
       <c r="G8" t="n">
-        <v>1.892772043082066</v>
+        <v>1.888013338178667</v>
       </c>
       <c r="H8" t="n">
-        <v>1.036788238485918</v>
+        <v>1.107307357454611</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00481619066626437</v>
+        <v>0.7998386672383073</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2058634348556991</v>
+        <v>2.228911441062292</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1118347721496794</v>
+        <v>0.6261946695147351</v>
       </c>
       <c r="L8" t="n">
-        <v>1.001744473060017</v>
+        <v>0.6796571006827192</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1165958099299843</v>
+        <v>0.6528530729976428</v>
       </c>
       <c r="N8" t="n">
-        <v>138.7629309824054</v>
+        <v>35.87237593023446</v>
       </c>
       <c r="O8" t="n">
-        <v>217.9898595988384</v>
+        <v>56.59326495299387</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9970467468971508</v>
+        <v>0.901923097186905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7168804169521885</v>
+        <v>0.7170322971149763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7100519417856561</v>
+        <v>0.6790825558893501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.964395790244948</v>
+        <v>0.825167787285541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01239417150526943</v>
+        <v>0.4116077802469411</v>
       </c>
       <c r="G9" t="n">
-        <v>1.893221955486525</v>
+        <v>1.892206332138619</v>
       </c>
       <c r="H9" t="n">
-        <v>1.037127392078327</v>
+        <v>1.147903089721245</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005404214609079668</v>
+        <v>0.9691104363480223</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2132143686716298</v>
+        <v>2.392187001669388</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1113291134666464</v>
+        <v>0.6415666607975675</v>
       </c>
       <c r="L9" t="n">
-        <v>1.001728733523619</v>
+        <v>0.6637363332122457</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1160686243099568</v>
+        <v>0.6688794817737941</v>
       </c>
       <c r="N9" t="n">
-        <v>138.7810579135443</v>
+        <v>35.77536874550897</v>
       </c>
       <c r="O9" t="n">
-        <v>218.0079865299774</v>
+        <v>56.49625776826838</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9970711720811913</v>
+        <v>0.8962167413901685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7168136782711434</v>
+        <v>0.7156454341642488</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7099566256137401</v>
+        <v>0.6669128735891344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9603351960174871</v>
+        <v>0.7927166032519818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01229166423294875</v>
+        <v>0.43555613480775</v>
       </c>
       <c r="G10" t="n">
-        <v>1.893668237353977</v>
+        <v>1.901480291076051</v>
       </c>
       <c r="H10" t="n">
-        <v>1.037468332498521</v>
+        <v>1.191433337670393</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006020555283302202</v>
+        <v>1.148990222975991</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2204343606842927</v>
+        <v>2.544397860217294</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1108677781546503</v>
+        <v>0.6599667679571071</v>
       </c>
       <c r="L10" t="n">
-        <v>1.001714435854912</v>
+        <v>0.6441716847662919</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1155876489986333</v>
+        <v>0.688062919588588</v>
       </c>
       <c r="N10" t="n">
-        <v>138.7976679019753</v>
+        <v>35.66226318723796</v>
       </c>
       <c r="O10" t="n">
-        <v>218.0245965184084</v>
+        <v>56.38315220999737</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.997093230881665</v>
+        <v>0.8892046432242122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7167474585453244</v>
+        <v>0.712096268553692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7098603821977598</v>
+        <v>0.6547434194696631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9560969868057829</v>
+        <v>0.7590900189828318</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01219908816623516</v>
+        <v>0.4649844107644571</v>
       </c>
       <c r="G11" t="n">
-        <v>1.894111048965442</v>
+        <v>1.925213577856249</v>
       </c>
       <c r="H11" t="n">
-        <v>1.037812589616969</v>
+        <v>1.234962769430249</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006663855395727185</v>
+        <v>1.33538535719072</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2275339618896471</v>
+        <v>2.690901711764289</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1104494824172352</v>
+        <v>0.6818976541713991</v>
       </c>
       <c r="L11" t="n">
-        <v>1.001701523386342</v>
+        <v>0.6201302053401563</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1151515455456849</v>
+        <v>0.7109274490322155</v>
       </c>
       <c r="N11" t="n">
-        <v>138.8127881410173</v>
+        <v>35.53150279838898</v>
       </c>
       <c r="O11" t="n">
-        <v>218.0397167574504</v>
+        <v>56.25239182114839</v>
       </c>
     </row>
   </sheetData>
